--- a/mur silvia/modesFourier/LMS_ModalShapes_P7.xlsx
+++ b/mur silvia/modesFourier/LMS_ModalShapes_P7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpine\Documents\MATLAB\ondelettes\mur silvia\modesFourier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDC5D57-ADAA-4378-8604-FC2B5FE6D98F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66A139-0039-43E0-AC6C-D58BA4965455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>10.964</v>
+        <v>10.973000000000001</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>31.632000000000001</v>
+        <v>28.34</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>36.978999999999999</v>
+        <v>34.22</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>

--- a/mur silvia/modesFourier/LMS_ModalShapes_P7.xlsx
+++ b/mur silvia/modesFourier/LMS_ModalShapes_P7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpine\Documents\MATLAB\ondelettes\mur silvia\modesFourier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66A139-0039-43E0-AC6C-D58BA4965455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDC5D57-ADAA-4378-8604-FC2B5FE6D98F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>10.973000000000001</v>
+        <v>10.964</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>28.34</v>
+        <v>31.632000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>34.22</v>
+        <v>36.978999999999999</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
